--- a/LAB10/report.xlsx
+++ b/LAB10/report.xlsx
@@ -43,7 +43,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>18/05/2021</t>
+    <t>25/05/2021</t>
   </si>
   <si>
     <t>Name</t>
